--- a/ProcessedData/conf_svm_video_3.xlsx
+++ b/ProcessedData/conf_svm_video_3.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,16 +405,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.072313720902789</v>
+        <v>25.2990836025309</v>
       </c>
       <c r="C2">
-        <v>-0.5660510002639356</v>
+        <v>12.41111261925381</v>
       </c>
       <c r="D2">
-        <v>-0.3082733516615752</v>
+        <v>0.3048650819808233</v>
+      </c>
+      <c r="E2">
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4298517739463965</v>
+        <v>3.782409089530934</v>
       </c>
       <c r="C3">
-        <v>-0.7680059989724597</v>
+        <v>2.465996389768495</v>
       </c>
       <c r="D3">
-        <v>-1.138937512370817</v>
+        <v>1.456243249677695</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2814754728840489</v>
+        <v>2.831043442245946</v>
       </c>
       <c r="C4">
-        <v>-0.6101576783433424</v>
+        <v>1.131870834333329</v>
       </c>
       <c r="D4">
-        <v>-0.948077824701435</v>
+        <v>1.220853212342933</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.002885088158744276</v>
+        <v>2.824567187217307</v>
       </c>
       <c r="C5">
-        <v>-0.5121668468413709</v>
+        <v>1.788064230869814</v>
       </c>
       <c r="D5">
-        <v>-0.761046768409861</v>
+        <v>0.9355764881016539</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -482,13 +485,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1479332556856924</v>
+        <v>3.877614774547918</v>
       </c>
       <c r="C6">
-        <v>-0.6373359352547079</v>
+        <v>1.900951448805464</v>
       </c>
       <c r="D6">
-        <v>-0.9533271683300791</v>
+        <v>1.963435508842941</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -499,13 +505,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2317366945032638</v>
+        <v>4.149097588797437</v>
       </c>
       <c r="C7">
-        <v>-0.6014631278918872</v>
+        <v>1.353303588818411</v>
       </c>
       <c r="D7">
-        <v>-0.9359919093189425</v>
+        <v>1.320890118948951</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -516,13 +525,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6552015419088923</v>
+        <v>3.943069214596817</v>
       </c>
       <c r="C8">
-        <v>-0.727086694915299</v>
+        <v>1.824487074159892</v>
       </c>
       <c r="D8">
-        <v>-1.414909652765961</v>
+        <v>1.20624418090242</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5656098229460542</v>
+        <v>2.582020101511897</v>
       </c>
       <c r="C9">
-        <v>-0.5218765281350409</v>
+        <v>1.858306151321691</v>
       </c>
       <c r="D9">
-        <v>-1.420491283015721</v>
+        <v>-0.5983682259676547</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9164949560894694</v>
+        <v>4.221807403331834</v>
       </c>
       <c r="C10">
-        <v>-0.9178910205710675</v>
+        <v>1.4510674344767</v>
       </c>
       <c r="D10">
-        <v>-1.346409534581769</v>
+        <v>-0.9152088092130591</v>
+      </c>
+      <c r="E10">
+        <v>19</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8428261047509501</v>
+        <v>3.503759698227493</v>
       </c>
       <c r="C11">
-        <v>-0.8247720774548268</v>
+        <v>1.721620325409479</v>
       </c>
       <c r="D11">
-        <v>-1.408583456409704</v>
+        <v>-0.625462723270621</v>
+      </c>
+      <c r="E11">
+        <v>19</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -584,13 +605,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4251349799847943</v>
+        <v>3.50863636694058</v>
       </c>
       <c r="C12">
-        <v>-0.6100815115521678</v>
+        <v>1.703123339561263</v>
       </c>
       <c r="D12">
-        <v>-1.230516289336481</v>
+        <v>1.47516625323937</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -601,13 +625,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5462357365847237</v>
+        <v>3.440145045049731</v>
       </c>
       <c r="C13">
-        <v>-0.738487061970295</v>
+        <v>0.8743207079385746</v>
       </c>
       <c r="D13">
-        <v>-1.144075928445466</v>
+        <v>0.5390050620278062</v>
+      </c>
+      <c r="E13">
+        <v>19</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -618,13 +645,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6013905162590009</v>
+        <v>4.010074719144718</v>
       </c>
       <c r="C14">
-        <v>-0.7060716721540028</v>
+        <v>1.9533639666936</v>
       </c>
       <c r="D14">
-        <v>-1.329608107176792</v>
+        <v>1.16325380792198</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -635,13 +665,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8650801817740496</v>
+        <v>3.743390081047467</v>
       </c>
       <c r="C15">
-        <v>-0.8205673221586434</v>
+        <v>1.476838176556359</v>
       </c>
       <c r="D15">
-        <v>-1.508606363564481</v>
+        <v>0.851980170849984</v>
+      </c>
+      <c r="E15">
+        <v>19</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -652,13 +685,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6097284623135724</v>
+        <v>4.765622384332618</v>
       </c>
       <c r="C16">
-        <v>-0.8030785123613229</v>
+        <v>1.740874839055051</v>
       </c>
       <c r="D16">
-        <v>-1.222320865258492</v>
+        <v>0.8787552239776885</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.4153709358507917</v>
+        <v>3.639247695702424</v>
       </c>
       <c r="C17">
-        <v>-0.4772071942348313</v>
+        <v>3.019090089786782</v>
       </c>
       <c r="D17">
-        <v>-0.533386350901401</v>
+        <v>1.964874592124812</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -686,13 +725,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2947817876877319</v>
+        <v>2.639190580356518</v>
       </c>
       <c r="C18">
-        <v>-0.5556817665474073</v>
+        <v>2.538245170583529</v>
       </c>
       <c r="D18">
-        <v>-1.307990015500742</v>
+        <v>1.989529088987173</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -703,13 +745,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.04536862072263598</v>
+        <v>2.218156739940616</v>
       </c>
       <c r="C19">
-        <v>-0.5691731701941452</v>
+        <v>1.654996074268717</v>
       </c>
       <c r="D19">
-        <v>-0.8617004488010842</v>
+        <v>1.344982044065905</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.1450852344900655</v>
+        <v>1.100210832613846</v>
       </c>
       <c r="C20">
-        <v>-0.4186956349369101</v>
+        <v>0.4480352468848461</v>
       </c>
       <c r="D20">
-        <v>-0.5342247493540819</v>
+        <v>0.6411832424169641</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3925028535705424</v>
+        <v>1.902313468696646</v>
       </c>
       <c r="C21">
-        <v>-0.6231307526278324</v>
+        <v>1.338347929386736</v>
       </c>
       <c r="D21">
-        <v>-1.126083571749558</v>
+        <v>-0.1143249857980168</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.04452651117730189</v>
+        <v>2.940582667798942</v>
       </c>
       <c r="C22">
-        <v>-0.5823328707716823</v>
+        <v>1.731501102203702</v>
       </c>
       <c r="D22">
-        <v>-0.7718263883974642</v>
+        <v>2.268499450890804</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -771,16 +825,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.096672777491513</v>
+        <v>5.701953199424272</v>
       </c>
       <c r="C23">
-        <v>-0.5180124117319818</v>
+        <v>11.43123682541789</v>
       </c>
       <c r="D23">
-        <v>-0.3586555283897472</v>
+        <v>3.596841607454876</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -788,13 +845,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-0.8014504884231715</v>
+        <v>-0.823944965825074</v>
       </c>
       <c r="C24">
-        <v>-0.2116307754038894</v>
+        <v>0.5476737868204562</v>
       </c>
       <c r="D24">
-        <v>-0.08307473544385049</v>
+        <v>1.731093688462362</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -805,13 +865,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.040886388064868</v>
+        <v>-2.103513519006327</v>
       </c>
       <c r="C25">
-        <v>-0.2765578367207252</v>
+        <v>1.461639084666173</v>
       </c>
       <c r="D25">
-        <v>0.1443054443591751</v>
+        <v>1.592614049180679</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -822,16 +885,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.7175723207448039</v>
+        <v>-1.018880839572139</v>
       </c>
       <c r="C26">
-        <v>-0.2750081858904352</v>
+        <v>1.30733809754832</v>
       </c>
       <c r="D26">
-        <v>-0.1124389161906265</v>
+        <v>0.1745648889603965</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -839,16 +905,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-1.00436782034754</v>
+        <v>-0.8247584080163284</v>
       </c>
       <c r="C27">
-        <v>-0.1949342007088437</v>
+        <v>1.454952237787602</v>
       </c>
       <c r="D27">
-        <v>-0.05576277698388972</v>
+        <v>1.033469167197588</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>-0.5762109398822068</v>
+        <v>-1.439914672636979</v>
       </c>
       <c r="C28">
-        <v>-0.1809866397701683</v>
+        <v>0.916316483792216</v>
       </c>
       <c r="D28">
-        <v>-0.3258346380418384</v>
+        <v>0.4802779322437762</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -873,13 +945,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.043592001315891</v>
+        <v>-0.4291213777366112</v>
       </c>
       <c r="C29">
-        <v>-0.1677065200551812</v>
+        <v>1.378214793600511</v>
       </c>
       <c r="D29">
-        <v>0.1225446912538185</v>
+        <v>1.918977017956164</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -890,16 +965,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>-1.052774284193677</v>
+        <v>3.241335494917492</v>
       </c>
       <c r="C30">
-        <v>-0.4648120765443408</v>
+        <v>5.852921261808077</v>
       </c>
       <c r="D30">
-        <v>-0.0531294033396675</v>
+        <v>3.051448504835203</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -907,13 +985,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.4814244861815654</v>
+        <v>0.01055993345713246</v>
       </c>
       <c r="C31">
-        <v>-0.3694481644769763</v>
+        <v>0.5321464083553777</v>
       </c>
       <c r="D31">
-        <v>-0.2946049562464924</v>
+        <v>0.5719522127484048</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-0.8301000028541998</v>
+        <v>-0.4849598082982453</v>
       </c>
       <c r="C32">
-        <v>-0.2626203073358304</v>
+        <v>0.7356859683888313</v>
       </c>
       <c r="D32">
-        <v>-0.154658648542787</v>
+        <v>1.482003404846843</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -941,13 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.217287618808235</v>
+        <v>-0.8788583522832255</v>
       </c>
       <c r="C33">
-        <v>-0.1435913504295441</v>
+        <v>0.9665535195203361</v>
       </c>
       <c r="D33">
-        <v>0.1072472430964788</v>
+        <v>1.396469553737836</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.7564536675872547</v>
+        <v>-0.3497148469182729</v>
       </c>
       <c r="C34">
-        <v>-0.3409968826922454</v>
+        <v>1.463699564480424</v>
       </c>
       <c r="D34">
-        <v>-0.1148307315403838</v>
+        <v>2.655450964504175</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -975,13 +1065,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-0.5162679934797546</v>
+        <v>-0.3066200636055686</v>
       </c>
       <c r="C35">
-        <v>-0.4837901843753998</v>
+        <v>0.6477969342067849</v>
       </c>
       <c r="D35">
-        <v>-0.1805680450183446</v>
+        <v>0.8029248702727165</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -992,13 +1085,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.09812968334357</v>
+        <v>-1.108845154756041</v>
       </c>
       <c r="C36">
-        <v>-0.2347765266210708</v>
+        <v>1.63512325062804</v>
       </c>
       <c r="D36">
-        <v>0.03967613458098784</v>
+        <v>2.899526010707794</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.7109938084114116</v>
+        <v>0.3149305292360802</v>
       </c>
       <c r="C37">
-        <v>-0.3466277432088956</v>
+        <v>0.4856140245075695</v>
       </c>
       <c r="D37">
-        <v>-0.03065635887235583</v>
+        <v>0.981089543310155</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1026,13 +1125,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-0.6437088887723235</v>
+        <v>-0.8703451132151898</v>
       </c>
       <c r="C38">
-        <v>-0.2397425787129343</v>
+        <v>-0.003239900195284751</v>
       </c>
       <c r="D38">
-        <v>-0.1383498375462965</v>
+        <v>0.681334028850715</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -1043,13 +1145,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.054762189174213</v>
+        <v>-1.28122729943862</v>
       </c>
       <c r="C39">
-        <v>-0.1724876372804093</v>
+        <v>1.123318528672266</v>
       </c>
       <c r="D39">
-        <v>0.1997828781909249</v>
+        <v>1.688501638180354</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
       </c>
       <c r="F39">
         <v>2</v>
@@ -1060,16 +1165,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-0.5898818774689071</v>
+        <v>-0.9314731240810762</v>
       </c>
       <c r="C40">
-        <v>-0.3167211890881004</v>
+        <v>0.8693676140536621</v>
       </c>
       <c r="D40">
-        <v>-0.1731342447925198</v>
+        <v>0.8075164812391908</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1077,16 +1185,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-0.9421647903122055</v>
+        <v>-1.591259703814868</v>
       </c>
       <c r="C41">
-        <v>-0.1843482791018738</v>
+        <v>1.619770439151542</v>
       </c>
       <c r="D41">
-        <v>-0.007946531794929976</v>
+        <v>0.4024753150637953</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1094,16 +1205,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.203047969065149</v>
+        <v>1.096290658745322</v>
       </c>
       <c r="C42">
-        <v>-0.3153195961261169</v>
+        <v>5.01676190658333</v>
       </c>
       <c r="D42">
-        <v>-0.00667025464525093</v>
+        <v>3.466632956145114</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1111,16 +1225,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-1.710263969687442</v>
+        <v>5.799481315081156</v>
       </c>
       <c r="C43">
-        <v>-0.5340721213020735</v>
+        <v>12.94744542787917</v>
       </c>
       <c r="D43">
-        <v>0.08004103398562323</v>
+        <v>5.151524738744858</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1128,13 +1245,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-1.0201272580031</v>
+        <v>-0.1820624684193746</v>
       </c>
       <c r="C44">
-        <v>-0.3622924297493166</v>
+        <v>1.569468230883142</v>
       </c>
       <c r="D44">
-        <v>0.05452429767056018</v>
+        <v>4.707050608420754</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -1145,13 +1265,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-1.577828600998826</v>
+        <v>-0.8520278539952217</v>
       </c>
       <c r="C45">
-        <v>-0.2373686000931767</v>
+        <v>2.746098247149424</v>
       </c>
       <c r="D45">
-        <v>0.3311764397772889</v>
+        <v>3.980396048256508</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-0.8503224336337446</v>
+        <v>-0.5726067810271935</v>
       </c>
       <c r="C46">
-        <v>-0.3206308951757105</v>
+        <v>1.388250889515996</v>
       </c>
       <c r="D46">
-        <v>-0.04599945268603261</v>
+        <v>2.748730628286197</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
       </c>
       <c r="F46">
         <v>2</v>
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-0.9100039445916906</v>
+        <v>-1.688996390375296</v>
       </c>
       <c r="C47">
-        <v>-0.1085430604452539</v>
+        <v>0.4640160850566506</v>
       </c>
       <c r="D47">
-        <v>-0.01567319845134641</v>
+        <v>1.925885387972735</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
       </c>
       <c r="F47">
         <v>2</v>
@@ -1196,16 +1325,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-0.489092531185165</v>
+        <v>-0.5504708397686695</v>
       </c>
       <c r="C48">
-        <v>-0.2988946878044132</v>
+        <v>0.5664837962276297</v>
       </c>
       <c r="D48">
-        <v>-0.2788973500010455</v>
+        <v>0.5139005206139042</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.8646915368546927</v>
+        <v>-1.383286525584686</v>
       </c>
       <c r="C49">
-        <v>-0.1611566442809004</v>
+        <v>0.9343796288032609</v>
       </c>
       <c r="D49">
-        <v>0.01471166381868041</v>
+        <v>1.722730419539711</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-0.8665883808540916</v>
+        <v>-1.201954687967</v>
       </c>
       <c r="C50">
-        <v>-0.2655980707991072</v>
+        <v>1.294594706789602</v>
       </c>
       <c r="D50">
-        <v>-0.1297881945337105</v>
+        <v>2.130137511961427</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
       </c>
       <c r="F50">
         <v>2</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.6624105734856348</v>
+        <v>-1.309947523624217</v>
       </c>
       <c r="C51">
-        <v>-0.2820693897106117</v>
+        <v>0.4150001576598257</v>
       </c>
       <c r="D51">
-        <v>-0.1397972061753089</v>
+        <v>1.266239481785929</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
       </c>
       <c r="F51">
         <v>2</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-0.5901258879401736</v>
+        <v>-1.383924952705497</v>
       </c>
       <c r="C52">
-        <v>-0.2972679472978877</v>
+        <v>0.6614513287734558</v>
       </c>
       <c r="D52">
-        <v>-0.1750426085873074</v>
+        <v>1.934682905444561</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
       </c>
       <c r="F52">
         <v>2</v>
@@ -1281,13 +1425,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.4051988003780393</v>
+        <v>-1.624226916903484</v>
       </c>
       <c r="C53">
-        <v>0.08634359390356788</v>
+        <v>1.332436057749465</v>
       </c>
       <c r="D53">
-        <v>-0.5823625150766092</v>
+        <v>-0.7401724570645051</v>
+      </c>
+      <c r="E53">
+        <v>20</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-0.8019197188710371</v>
+        <v>-0.8158629456231834</v>
       </c>
       <c r="C54">
-        <v>-0.2324428128231181</v>
+        <v>0.7656151294451625</v>
       </c>
       <c r="D54">
-        <v>-0.1015104870241775</v>
+        <v>3.109057732502432</v>
+      </c>
+      <c r="E54">
+        <v>20</v>
       </c>
       <c r="F54">
         <v>2</v>
@@ -1315,16 +1465,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-1.117522845127919</v>
+        <v>2.163938174814791</v>
       </c>
       <c r="C55">
-        <v>-0.2601431072929687</v>
+        <v>6.27693699426679</v>
       </c>
       <c r="D55">
-        <v>-0.08710301151510913</v>
+        <v>2.928837940661472</v>
+      </c>
+      <c r="E55">
+        <v>20</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1332,13 +1485,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-1.057393349081988</v>
+        <v>-1.024217302395224</v>
       </c>
       <c r="C56">
-        <v>-0.335249469753325</v>
+        <v>1.331262198499937</v>
       </c>
       <c r="D56">
-        <v>0.1320318556641853</v>
+        <v>2.686696868482046</v>
+      </c>
+      <c r="E56">
+        <v>20</v>
       </c>
       <c r="F56">
         <v>2</v>
@@ -1349,13 +1505,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-0.907467382498317</v>
+        <v>-1.556715138364481</v>
       </c>
       <c r="C57">
-        <v>-0.1931924297584681</v>
+        <v>0.4917224870731927</v>
       </c>
       <c r="D57">
-        <v>0.01530879682935873</v>
+        <v>2.650998132759959</v>
+      </c>
+      <c r="E57">
+        <v>20</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -1366,16 +1525,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.4138616773945613</v>
+        <v>4.190787918308519</v>
       </c>
       <c r="C58">
-        <v>-0.4702780039872932</v>
+        <v>12.2798967024702</v>
       </c>
       <c r="D58">
-        <v>-0.6310389513308476</v>
+        <v>3.746596063733873</v>
+      </c>
+      <c r="E58">
+        <v>20</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1383,16 +1545,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-1.895321612498624</v>
+        <v>4.140875367179653</v>
       </c>
       <c r="C59">
-        <v>-0.4578118861211884</v>
+        <v>11.14229030437594</v>
       </c>
       <c r="D59">
-        <v>0.2128179945763013</v>
+        <v>4.584636485943341</v>
+      </c>
+      <c r="E59">
+        <v>20</v>
       </c>
       <c r="F59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1400,16 +1565,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.8183461945566265</v>
+        <v>-0.9916288150877173</v>
       </c>
       <c r="C60">
-        <v>-0.1546341831448333</v>
+        <v>1.285515622177329</v>
       </c>
       <c r="D60">
-        <v>-0.343920628916377</v>
+        <v>2.420461930825694</v>
+      </c>
+      <c r="E60">
+        <v>20</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1417,13 +1585,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.6766314816889302</v>
+        <v>-0.1543167057805177</v>
       </c>
       <c r="C61">
-        <v>-0.5580388202258612</v>
+        <v>3.481569760194862</v>
       </c>
       <c r="D61">
-        <v>-0.3036481015743304</v>
+        <v>5.274928809145414</v>
+      </c>
+      <c r="E61">
+        <v>20</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -1434,13 +1605,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-0.7811723411794161</v>
+        <v>-0.9644457341518189</v>
       </c>
       <c r="C62">
-        <v>-0.4086542837775515</v>
+        <v>2.339358514627916</v>
       </c>
       <c r="D62">
-        <v>-0.1623008420540468</v>
+        <v>3.267870160606126</v>
+      </c>
+      <c r="E62">
+        <v>20</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-0.6181418122267486</v>
+        <v>0.5452282025353146</v>
       </c>
       <c r="C63">
-        <v>-0.374301855392879</v>
+        <v>0.8113277541077097</v>
       </c>
       <c r="D63">
-        <v>-0.07598789663230465</v>
+        <v>1.436380148941587</v>
+      </c>
+      <c r="E63">
+        <v>21</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -1468,13 +1645,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-0.7605508177826988</v>
+        <v>-0.009182631556456822</v>
       </c>
       <c r="C64">
-        <v>-0.2183404150406071</v>
+        <v>0.8481387806247211</v>
       </c>
       <c r="D64">
-        <v>-0.02565930870852621</v>
+        <v>1.50729902052615</v>
+      </c>
+      <c r="E64">
+        <v>21</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -1485,16 +1665,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-0.6227369842286292</v>
+        <v>0.1516611554478255</v>
       </c>
       <c r="C65">
-        <v>-0.3508387583111239</v>
+        <v>1.093173456830898</v>
       </c>
       <c r="D65">
-        <v>-0.1482805294860562</v>
+        <v>0.2331446518478221</v>
+      </c>
+      <c r="E65">
+        <v>21</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1502,16 +1685,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>-0.7196599233841177</v>
+        <v>0.1928432731396714</v>
       </c>
       <c r="C66">
-        <v>-0.1338052787421839</v>
+        <v>0.4314218950754996</v>
       </c>
       <c r="D66">
-        <v>-0.1749730204298719</v>
+        <v>0.772292671233778</v>
+      </c>
+      <c r="E66">
+        <v>21</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1519,13 +1705,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>-0.4761190613375903</v>
+        <v>0.348100774451134</v>
       </c>
       <c r="C67">
-        <v>-0.3381903238446726</v>
+        <v>0.3541821938815282</v>
       </c>
       <c r="D67">
-        <v>-0.206767833508428</v>
+        <v>0.9411693411711888</v>
+      </c>
+      <c r="E67">
+        <v>21</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -1536,13 +1725,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.5518509313135799</v>
+        <v>-0.6244104932405854</v>
       </c>
       <c r="C68">
-        <v>-0.3029411516968831</v>
+        <v>-0.2826056642075368</v>
       </c>
       <c r="D68">
-        <v>-0.03832693175303584</v>
+        <v>0.949937143589816</v>
+      </c>
+      <c r="E68">
+        <v>21</v>
       </c>
       <c r="F68">
         <v>2</v>
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.6245818295152921</v>
+        <v>-0.09160175917089564</v>
       </c>
       <c r="C69">
-        <v>-0.2558598135634681</v>
+        <v>0.1046661045192074</v>
       </c>
       <c r="D69">
-        <v>-0.1129381477986568</v>
+        <v>0.6270187492931982</v>
+      </c>
+      <c r="E69">
+        <v>21</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -1570,16 +1765,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.5918664218780996</v>
+        <v>0.08528988762744238</v>
       </c>
       <c r="C70">
-        <v>-0.4144269247882506</v>
+        <v>0.7790464240945441</v>
       </c>
       <c r="D70">
-        <v>-0.03064330558506721</v>
+        <v>-0.10448604331571</v>
+      </c>
+      <c r="E70">
+        <v>21</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.6391689031514987</v>
+        <v>0.08993328326816519</v>
       </c>
       <c r="C71">
-        <v>-0.3001955186640007</v>
+        <v>0.1509099546382917</v>
       </c>
       <c r="D71">
-        <v>-0.07912845949695457</v>
+        <v>2.084503436497434</v>
+      </c>
+      <c r="E71">
+        <v>21</v>
       </c>
       <c r="F71">
         <v>2</v>
@@ -1604,13 +1805,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.6347592291650295</v>
+        <v>0.3188264827978764</v>
       </c>
       <c r="C72">
-        <v>-0.3621945252232094</v>
+        <v>0.03449262262707398</v>
       </c>
       <c r="D72">
-        <v>-0.08034354893585618</v>
+        <v>1.752487007321843</v>
+      </c>
+      <c r="E72">
+        <v>21</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -1621,16 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>-1.072120893191362</v>
+        <v>12.93934161864361</v>
       </c>
       <c r="C73">
-        <v>-0.3868871347820807</v>
+        <v>11.12916265318051</v>
       </c>
       <c r="D73">
-        <v>-0.2192295189171602</v>
+        <v>1.800389302653221</v>
+      </c>
+      <c r="E73">
+        <v>21</v>
       </c>
       <c r="F73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1638,13 +1845,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>-0.5096747683761658</v>
+        <v>0.128691460072303</v>
       </c>
       <c r="C74">
-        <v>-0.3968472993503899</v>
+        <v>0.2997636417963638</v>
       </c>
       <c r="D74">
-        <v>-0.1621462562662531</v>
+        <v>1.476885122235367</v>
+      </c>
+      <c r="E74">
+        <v>21</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -1655,13 +1865,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.7241533263323885</v>
+        <v>-0.1382301677272468</v>
       </c>
       <c r="C75">
-        <v>-0.1799290491634974</v>
+        <v>0.502195051765902</v>
       </c>
       <c r="D75">
-        <v>-0.1680581768048473</v>
+        <v>1.218407183395967</v>
+      </c>
+      <c r="E75">
+        <v>21</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -1672,13 +1885,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>-0.7621862707780552</v>
+        <v>-0.2849584264424116</v>
       </c>
       <c r="C76">
-        <v>-0.1995583520093343</v>
+        <v>0.3872540526256316</v>
       </c>
       <c r="D76">
-        <v>-0.09919517155567112</v>
+        <v>1.311159093193739</v>
+      </c>
+      <c r="E76">
+        <v>21</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -1689,16 +1905,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>-0.6431082321491017</v>
+        <v>0.001989630710413248</v>
       </c>
       <c r="C77">
-        <v>-0.2768636219446118</v>
+        <v>1.37082436227784</v>
       </c>
       <c r="D77">
-        <v>-0.203175050941422</v>
+        <v>0.8981431693588011</v>
+      </c>
+      <c r="E77">
+        <v>21</v>
       </c>
       <c r="F77">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1706,16 +1925,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>-0.5555664005076066</v>
+        <v>0.2853965133657657</v>
       </c>
       <c r="C78">
-        <v>-0.1426395065915163</v>
+        <v>0.7163758151401936</v>
       </c>
       <c r="D78">
-        <v>-0.4188052564011638</v>
+        <v>1.337679604443754</v>
+      </c>
+      <c r="E78">
+        <v>21</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1723,16 +1945,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>-0.1632660565317421</v>
+        <v>0.3592261827797363</v>
       </c>
       <c r="C79">
-        <v>-0.4240025965962514</v>
+        <v>0.04226182866999106</v>
       </c>
       <c r="D79">
-        <v>-0.4889313936822529</v>
+        <v>0.895204776689968</v>
+      </c>
+      <c r="E79">
+        <v>21</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>-0.6609105530920123</v>
+        <v>0.6127341099905992</v>
       </c>
       <c r="C80">
-        <v>-0.2851368383300998</v>
+        <v>1.27730987997475</v>
       </c>
       <c r="D80">
-        <v>-0.2065922523542788</v>
+        <v>1.83710322621475</v>
+      </c>
+      <c r="E80">
+        <v>21</v>
       </c>
       <c r="F80">
         <v>2</v>
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>-0.1680164354512489</v>
+        <v>0.7628051029618801</v>
       </c>
       <c r="C81">
-        <v>-0.4512385885512155</v>
+        <v>-0.1685648757300571</v>
       </c>
       <c r="D81">
-        <v>-0.4055633954350464</v>
+        <v>0.7557808717497072</v>
+      </c>
+      <c r="E81">
+        <v>21</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -1774,13 +2005,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.6175433438509544</v>
+        <v>-0.01965250957983244</v>
       </c>
       <c r="C82">
-        <v>-0.3430942110064972</v>
+        <v>0.4114313157594276</v>
       </c>
       <c r="D82">
-        <v>-0.05195433346831903</v>
+        <v>1.550615561434926</v>
+      </c>
+      <c r="E82">
+        <v>21</v>
       </c>
       <c r="F82">
         <v>2</v>
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.5618725513833556</v>
+        <v>0.3309114306214735</v>
       </c>
       <c r="C83">
-        <v>-0.304132430718721</v>
+        <v>0.7498336136822958</v>
       </c>
       <c r="D83">
-        <v>-0.2195586211612397</v>
+        <v>1.272803996739188</v>
+      </c>
+      <c r="E83">
+        <v>21</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -1808,13 +2045,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>-0.2739347637016838</v>
+        <v>0.9640822038026426</v>
       </c>
       <c r="C84">
-        <v>-0.4664278567195381</v>
+        <v>0.9414404159166985</v>
       </c>
       <c r="D84">
-        <v>-0.4922782573370724</v>
+        <v>-0.05319542541407984</v>
+      </c>
+      <c r="E84">
+        <v>21</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -1825,16 +2065,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>-0.2551417123221936</v>
+        <v>0.1208510348173308</v>
       </c>
       <c r="C85">
-        <v>-0.4337746778427903</v>
+        <v>0.8742224788682555</v>
       </c>
       <c r="D85">
-        <v>-0.3582374669008673</v>
+        <v>0.1779904213643325</v>
+      </c>
+      <c r="E85">
+        <v>21</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1842,13 +2085,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.6438591082873063</v>
+        <v>-0.214164279016092</v>
       </c>
       <c r="C86">
-        <v>-0.2627529643544261</v>
+        <v>0.7699046869141826</v>
       </c>
       <c r="D86">
-        <v>-0.2064641586998338</v>
+        <v>1.453584372425136</v>
+      </c>
+      <c r="E86">
+        <v>21</v>
       </c>
       <c r="F86">
         <v>2</v>
@@ -1859,13 +2105,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.7352403772483109</v>
+        <v>-0.5959583726463766</v>
       </c>
       <c r="C87">
-        <v>-0.3172345711975237</v>
+        <v>1.544468613233526</v>
       </c>
       <c r="D87">
-        <v>-0.1548143519627385</v>
+        <v>1.54456809429719</v>
+      </c>
+      <c r="E87">
+        <v>21</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>-0.5214736696133682</v>
+        <v>0.3618725027374372</v>
       </c>
       <c r="C88">
-        <v>-0.3371786696260161</v>
+        <v>0.6745712685945353</v>
       </c>
       <c r="D88">
-        <v>-0.2248960643983698</v>
+        <v>1.414863075800153</v>
+      </c>
+      <c r="E88">
+        <v>21</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -1893,13 +2145,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.5267438163107772</v>
+        <v>0.05936933571478886</v>
       </c>
       <c r="C89">
-        <v>-0.3267037747066973</v>
+        <v>0.6102251746045446</v>
       </c>
       <c r="D89">
-        <v>-0.2624243156837143</v>
+        <v>0.6830525752332546</v>
+      </c>
+      <c r="E89">
+        <v>21</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -1910,13 +2165,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.7446429960859653</v>
+        <v>0.2890699312809888</v>
       </c>
       <c r="C90">
-        <v>-0.2957777499855461</v>
+        <v>0.08623224529119633</v>
       </c>
       <c r="D90">
-        <v>-0.04776514941227739</v>
+        <v>2.200986772200628</v>
+      </c>
+      <c r="E90">
+        <v>22</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.8038427486482118</v>
+        <v>0.1012065630129924</v>
       </c>
       <c r="C91">
-        <v>-0.408073096342264</v>
+        <v>1.363799119631471</v>
       </c>
       <c r="D91">
-        <v>-0.05468761049506847</v>
+        <v>3.240949915083874</v>
+      </c>
+      <c r="E91">
+        <v>22</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.6323662034760033</v>
+        <v>-0.6867798469397985</v>
       </c>
       <c r="C92">
-        <v>-0.3939145654949148</v>
+        <v>1.566754370393846</v>
       </c>
       <c r="D92">
-        <v>-0.1472145893913712</v>
+        <v>2.615706256426265</v>
+      </c>
+      <c r="E92">
+        <v>22</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.2984784408872146</v>
+        <v>-0.156559305518184</v>
       </c>
       <c r="C93">
-        <v>-0.5872897367903065</v>
+        <v>0.1971001622769699</v>
       </c>
       <c r="D93">
-        <v>-0.1671082350732353</v>
+        <v>1.079819183757537</v>
+      </c>
+      <c r="E93">
+        <v>22</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-0.8324581228803088</v>
+        <v>-0.2369851899481334</v>
       </c>
       <c r="C94">
-        <v>-0.312741385464011</v>
+        <v>0.7196665968154701</v>
       </c>
       <c r="D94">
-        <v>-0.007459235711856221</v>
+        <v>2.687610235262276</v>
+      </c>
+      <c r="E94">
+        <v>22</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>-0.4240550483798872</v>
+        <v>-0.09476402373144555</v>
       </c>
       <c r="C95">
-        <v>-0.4788349948759147</v>
+        <v>-0.4222798779234765</v>
       </c>
       <c r="D95">
-        <v>-0.1009315185644434</v>
+        <v>1.15720899878535</v>
+      </c>
+      <c r="E95">
+        <v>22</v>
       </c>
       <c r="F95">
         <v>2</v>
@@ -2012,13 +2285,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.6578894592569451</v>
+        <v>-0.7796204473424668</v>
       </c>
       <c r="C96">
-        <v>-0.3101721288881756</v>
+        <v>-0.3329026246142334</v>
       </c>
       <c r="D96">
-        <v>0.085753392708042</v>
+        <v>1.041666194573595</v>
+      </c>
+      <c r="E96">
+        <v>22</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -2029,13 +2305,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>-0.9259701302144659</v>
+        <v>-0.2433965459214508</v>
       </c>
       <c r="C97">
-        <v>-0.2934502378057145</v>
+        <v>0.930939951025995</v>
       </c>
       <c r="D97">
-        <v>0.03645473052019905</v>
+        <v>2.983303412171571</v>
+      </c>
+      <c r="E97">
+        <v>22</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -2046,13 +2325,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>-0.9340555925769691</v>
+        <v>-0.8705423903817193</v>
       </c>
       <c r="C98">
-        <v>-0.2286037073860977</v>
+        <v>0.5559019013686206</v>
       </c>
       <c r="D98">
-        <v>0.07116906503914014</v>
+        <v>0.9797073235967823</v>
+      </c>
+      <c r="E98">
+        <v>22</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.6673741827407149</v>
+        <v>-0.545590634848339</v>
       </c>
       <c r="C99">
-        <v>-0.4342209619775256</v>
+        <v>0.3453816938315497</v>
       </c>
       <c r="D99">
-        <v>-0.01231156500529022</v>
+        <v>2.467844915261681</v>
+      </c>
+      <c r="E99">
+        <v>22</v>
       </c>
       <c r="F99">
         <v>2</v>
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.8916740843443889</v>
+        <v>-1.114404931568369</v>
       </c>
       <c r="C100">
-        <v>-0.2683750833684399</v>
+        <v>0.5830492366347861</v>
       </c>
       <c r="D100">
-        <v>0.09674667799950881</v>
+        <v>2.06608674509165</v>
+      </c>
+      <c r="E100">
+        <v>22</v>
       </c>
       <c r="F100">
         <v>2</v>
@@ -2097,13 +2385,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>-0.5999435919473557</v>
+        <v>-0.3914971534393609</v>
       </c>
       <c r="C101">
-        <v>-0.4137168908275036</v>
+        <v>0.7854957747846016</v>
       </c>
       <c r="D101">
-        <v>-0.1146015292507628</v>
+        <v>2.301518584732238</v>
+      </c>
+      <c r="E101">
+        <v>22</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-0.818816745407995</v>
+        <v>-0.09776124486485782</v>
       </c>
       <c r="C102">
-        <v>-0.277206566618454</v>
+        <v>0.1651282681268043</v>
       </c>
       <c r="D102">
-        <v>-0.05715967027402034</v>
+        <v>2.691161171878704</v>
+      </c>
+      <c r="E102">
+        <v>22</v>
       </c>
       <c r="F102">
         <v>2</v>
@@ -2131,13 +2425,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>-0.6788163835477086</v>
+        <v>-0.785339878762248</v>
       </c>
       <c r="C103">
-        <v>-0.3199112740033352</v>
+        <v>0.2176325775620447</v>
       </c>
       <c r="D103">
-        <v>-0.130191672394216</v>
+        <v>2.824089438727854</v>
+      </c>
+      <c r="E103">
+        <v>22</v>
       </c>
       <c r="F103">
         <v>2</v>
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>-0.7094197810252358</v>
+        <v>-0.3494091784184189</v>
       </c>
       <c r="C104">
-        <v>-0.3830044754965294</v>
+        <v>0.7196191896835065</v>
       </c>
       <c r="D104">
-        <v>-0.05721094942931278</v>
+        <v>2.126225249254697</v>
+      </c>
+      <c r="E104">
+        <v>22</v>
       </c>
       <c r="F104">
         <v>2</v>
@@ -2165,16 +2465,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-0.4607906925960102</v>
+        <v>-0.7636361163071408</v>
       </c>
       <c r="C105">
-        <v>-0.3565376902545535</v>
+        <v>0.8694085331792432</v>
       </c>
       <c r="D105">
-        <v>-0.2616427928003738</v>
+        <v>0.5665583621848245</v>
+      </c>
+      <c r="E105">
+        <v>22</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2182,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-0.6457186895464038</v>
+        <v>-0.4148723268787567</v>
       </c>
       <c r="C106">
-        <v>-0.4313062547590867</v>
+        <v>-0.1680914751730157</v>
       </c>
       <c r="D106">
-        <v>0.01093340711023404</v>
+        <v>2.153389505032618</v>
+      </c>
+      <c r="E106">
+        <v>22</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>-0.810948308276538</v>
+        <v>-0.4490025809497277</v>
       </c>
       <c r="C107">
-        <v>-0.2296086137538937</v>
+        <v>0.1178206766616956</v>
       </c>
       <c r="D107">
-        <v>-0.01124012351374001</v>
+        <v>1.580993897473805</v>
+      </c>
+      <c r="E107">
+        <v>22</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>-0.7175975066289623</v>
+        <v>-0.8680584407059593</v>
       </c>
       <c r="C108">
-        <v>-0.3260948172136874</v>
+        <v>0.2670054402954845</v>
       </c>
       <c r="D108">
-        <v>-0.04095287341083749</v>
+        <v>2.544510908771181</v>
+      </c>
+      <c r="E108">
+        <v>22</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>-0.7124881059606406</v>
+        <v>-0.5751449527394087</v>
       </c>
       <c r="C109">
-        <v>-0.303225266447879</v>
+        <v>-0.3796855361301238</v>
       </c>
       <c r="D109">
-        <v>0.04078987035584899</v>
+        <v>1.846721185153733</v>
+      </c>
+      <c r="E109">
+        <v>22</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.8462483309067633</v>
+        <v>-0.7465510813706745</v>
       </c>
       <c r="C110">
-        <v>-0.3317468354400775</v>
+        <v>0.6830396833443981</v>
       </c>
       <c r="D110">
-        <v>0.06451984817055212</v>
+        <v>2.279416497272444</v>
+      </c>
+      <c r="E110">
+        <v>22</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -2267,13 +2585,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-0.447428340269545</v>
+        <v>-0.5398787874222402</v>
       </c>
       <c r="C111">
-        <v>-0.4741202297584729</v>
+        <v>0.1362761942940859</v>
       </c>
       <c r="D111">
-        <v>-0.1309284033512319</v>
+        <v>0.8417726881969047</v>
+      </c>
+      <c r="E111">
+        <v>22</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-0.6005728930620149</v>
+        <v>-0.3438141670448664</v>
       </c>
       <c r="C112">
-        <v>-0.3480514794857403</v>
+        <v>0.06773760151207164</v>
       </c>
       <c r="D112">
-        <v>-0.1887454958977979</v>
+        <v>2.602946392960332</v>
+      </c>
+      <c r="E112">
+        <v>22</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -2301,16 +2625,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-0.6410260109854451</v>
+        <v>-0.6840419556390699</v>
       </c>
       <c r="C113">
-        <v>-0.2625148047590414</v>
+        <v>1.094885419781256</v>
       </c>
       <c r="D113">
-        <v>-0.1937817240559009</v>
+        <v>0.9640099881447141</v>
+      </c>
+      <c r="E113">
+        <v>22</v>
       </c>
       <c r="F113">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>-0.8688034834269351</v>
+        <v>0.05151320041150309</v>
       </c>
       <c r="C114">
-        <v>-0.2743887461320194</v>
+        <v>1.17545142971838</v>
       </c>
       <c r="D114">
-        <v>-0.002722896580271264</v>
+        <v>2.136041389041276</v>
+      </c>
+      <c r="E114">
+        <v>22</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-1.01790131162522</v>
+        <v>-0.5726947283371953</v>
       </c>
       <c r="C115">
-        <v>-0.3204288967274995</v>
+        <v>1.16444805501281</v>
       </c>
       <c r="D115">
-        <v>0.1372355988874688</v>
+        <v>2.895631176637016</v>
+      </c>
+      <c r="E115">
+        <v>22</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.6989331470757305</v>
+        <v>-0.3383101320291453</v>
       </c>
       <c r="C116">
-        <v>-0.3277527908312864</v>
+        <v>1.193437327306846</v>
       </c>
       <c r="D116">
-        <v>-0.1218235695759649</v>
+        <v>1.349178722263459</v>
+      </c>
+      <c r="E116">
+        <v>22</v>
       </c>
       <c r="F116">
         <v>2</v>
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.6830115680149513</v>
+        <v>-2.203453932910464</v>
       </c>
       <c r="C117">
-        <v>-0.4702632017152634</v>
+        <v>1.226594937117151</v>
       </c>
       <c r="D117">
-        <v>0.07057469602069846</v>
+        <v>1.93164540566528</v>
+      </c>
+      <c r="E117">
+        <v>22</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -2386,13 +2725,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>-0.883103586283277</v>
+        <v>-0.4849345090012483</v>
       </c>
       <c r="C118">
-        <v>-0.2568244816054678</v>
+        <v>0.9020139790325428</v>
       </c>
       <c r="D118">
-        <v>0.0007456870801955742</v>
+        <v>2.121970712145663</v>
+      </c>
+      <c r="E118">
+        <v>22</v>
       </c>
       <c r="F118">
         <v>2</v>
@@ -2403,13 +2745,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.7835003804764111</v>
+        <v>-0.723662728071462</v>
       </c>
       <c r="C119">
-        <v>-0.3923458903175776</v>
+        <v>-0.2041942375998395</v>
       </c>
       <c r="D119">
-        <v>0.1886737078744781</v>
+        <v>1.229353508564246</v>
+      </c>
+      <c r="E119">
+        <v>22</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>-0.9224425297237184</v>
+        <v>-0.4568923103065946</v>
       </c>
       <c r="C120">
-        <v>-0.2511703960046181</v>
+        <v>0.1062787400245895</v>
       </c>
       <c r="D120">
-        <v>0.1530775298534466</v>
+        <v>2.32589258464847</v>
+      </c>
+      <c r="E120">
+        <v>22</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -2437,16 +2785,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>-0.07670408774891244</v>
+        <v>-0.2342889413729281</v>
       </c>
       <c r="C121">
-        <v>-0.4652462020343245</v>
+        <v>1.085877943273377</v>
       </c>
       <c r="D121">
-        <v>-0.4686965098611149</v>
+        <v>-0.1104758956199641</v>
+      </c>
+      <c r="E121">
+        <v>23</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2454,16 +2805,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>-0.1598883464358992</v>
+        <v>0.9898058922374948</v>
       </c>
       <c r="C122">
-        <v>-0.4271614944219357</v>
+        <v>2.806640583696475</v>
       </c>
       <c r="D122">
-        <v>-0.7066331091721216</v>
+        <v>1.399707825247942</v>
+      </c>
+      <c r="E122">
+        <v>23</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2471,16 +2825,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>-0.3394873112031891</v>
+        <v>0.791535382087049</v>
       </c>
       <c r="C123">
-        <v>-0.4714660098430114</v>
+        <v>1.413824705623248</v>
       </c>
       <c r="D123">
-        <v>-0.2872712471872654</v>
+        <v>1.188777841368473</v>
+      </c>
+      <c r="E123">
+        <v>23</v>
       </c>
       <c r="F123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.4790107548716284</v>
+        <v>0.4734526283871971</v>
       </c>
       <c r="C124">
-        <v>-0.1947259925389043</v>
+        <v>1.433559356312114</v>
       </c>
       <c r="D124">
-        <v>-0.4929972132823001</v>
+        <v>0.4242068551034292</v>
+      </c>
+      <c r="E124">
+        <v>23</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -2505,16 +2865,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>-0.2773269799346866</v>
+        <v>0.09448007508887901</v>
       </c>
       <c r="C125">
-        <v>-0.285196150614669</v>
+        <v>0.9177816143823985</v>
       </c>
       <c r="D125">
-        <v>-0.4525725906102572</v>
+        <v>-0.07479681647832725</v>
+      </c>
+      <c r="E125">
+        <v>23</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2522,13 +2885,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-0.7253210026386453</v>
+        <v>0.9651495587016852</v>
       </c>
       <c r="C126">
-        <v>-0.2810596177458148</v>
+        <v>2.553857102614876</v>
       </c>
       <c r="D126">
-        <v>-0.2906339357847915</v>
+        <v>2.067862377758106</v>
+      </c>
+      <c r="E126">
+        <v>23</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -2539,13 +2905,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-0.01041350662863261</v>
+        <v>1.7037641022846</v>
       </c>
       <c r="C127">
-        <v>-0.4992109636352248</v>
+        <v>1.178177929535673</v>
       </c>
       <c r="D127">
-        <v>-0.5618243468829556</v>
+        <v>0.1379447807878253</v>
+      </c>
+      <c r="E127">
+        <v>23</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -2556,13 +2925,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-0.07272794102142369</v>
+        <v>3.286481910977371</v>
       </c>
       <c r="C128">
-        <v>-0.4282365863900954</v>
+        <v>1.681332439044558</v>
       </c>
       <c r="D128">
-        <v>-0.6991578837982869</v>
+        <v>0.329771249436914</v>
+      </c>
+      <c r="E128">
+        <v>23</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -2573,13 +2945,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-0.6148525639778075</v>
+        <v>1.382702242879739</v>
       </c>
       <c r="C129">
-        <v>-0.2886104782184355</v>
+        <v>1.558292553272276</v>
       </c>
       <c r="D129">
-        <v>-0.2721026884329354</v>
+        <v>1.781803966909195</v>
+      </c>
+      <c r="E129">
+        <v>23</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -2590,16 +2965,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-0.5776272224974128</v>
+        <v>1.491285453166508</v>
       </c>
       <c r="C130">
-        <v>-0.2485755851520641</v>
+        <v>1.60882374650318</v>
       </c>
       <c r="D130">
-        <v>-0.1815249687520459</v>
+        <v>0.8131384590118774</v>
+      </c>
+      <c r="E130">
+        <v>23</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2607,13 +2985,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.3994426558649871</v>
+        <v>-0.4513196990935402</v>
       </c>
       <c r="C131">
-        <v>-0.3045904945894467</v>
+        <v>1.979164686311236</v>
       </c>
       <c r="D131">
-        <v>-0.372620774343805</v>
+        <v>-0.4686521500403512</v>
+      </c>
+      <c r="E131">
+        <v>23</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -2624,16 +3005,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.5356499119887688</v>
+        <v>0.2355440922241099</v>
       </c>
       <c r="C132">
-        <v>-0.3053876387933658</v>
+        <v>1.089677124193224</v>
       </c>
       <c r="D132">
-        <v>-0.2062279486686202</v>
+        <v>0.8709119210972893</v>
+      </c>
+      <c r="E132">
+        <v>23</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -2641,13 +3025,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-0.4658955447604688</v>
+        <v>1.623329623348174</v>
       </c>
       <c r="C133">
-        <v>-0.3736365545926866</v>
+        <v>3.149751122915712</v>
       </c>
       <c r="D133">
-        <v>-0.5355169044346278</v>
+        <v>2.793345465151044</v>
+      </c>
+      <c r="E133">
+        <v>23</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-0.5674199667244536</v>
+        <v>0.8736766122726209</v>
       </c>
       <c r="C134">
-        <v>-0.2530731443274942</v>
+        <v>2.320609353425769</v>
       </c>
       <c r="D134">
-        <v>-0.4107734962430602</v>
+        <v>0.2834691008795528</v>
+      </c>
+      <c r="E134">
+        <v>23</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -2675,13 +3065,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>-0.4522323899930567</v>
+        <v>0.594925978511698</v>
       </c>
       <c r="C135">
-        <v>-0.2075483670973812</v>
+        <v>1.082955139508755</v>
       </c>
       <c r="D135">
-        <v>-0.3427490732069368</v>
+        <v>0.2598509909119182</v>
+      </c>
+      <c r="E135">
+        <v>23</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>-0.6197649162460623</v>
+        <v>-0.1300449120064406</v>
       </c>
       <c r="C136">
-        <v>-0.2255750009627344</v>
+        <v>0.8709279090207098</v>
       </c>
       <c r="D136">
-        <v>-0.2218779222971958</v>
+        <v>0.914374557327992</v>
+      </c>
+      <c r="E136">
+        <v>23</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -2709,13 +3105,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>-0.527161427133674</v>
+        <v>0.8488581261261527</v>
       </c>
       <c r="C137">
-        <v>-0.1818188288130646</v>
+        <v>1.711241039178247</v>
       </c>
       <c r="D137">
-        <v>-0.4620545260484785</v>
+        <v>1.029755060163259</v>
+      </c>
+      <c r="E137">
+        <v>23</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-0.6534966094387836</v>
+        <v>1.03959855819079</v>
       </c>
       <c r="C138">
-        <v>-0.2291336385051543</v>
+        <v>1.576427833250699</v>
       </c>
       <c r="D138">
-        <v>-0.269695441831056</v>
+        <v>1.128293649964743</v>
+      </c>
+      <c r="E138">
+        <v>23</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -2743,16 +3145,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>-0.680055071070534</v>
+        <v>1.104510812905035</v>
       </c>
       <c r="C139">
-        <v>-0.3057337353874028</v>
+        <v>1.148405196233438</v>
       </c>
       <c r="D139">
-        <v>-0.1650688363996442</v>
+        <v>0.9067145134362703</v>
+      </c>
+      <c r="E139">
+        <v>23</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -2760,16 +3165,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-0.4354898717807718</v>
+        <v>1.412225909073267</v>
       </c>
       <c r="C140">
-        <v>-0.1833908195543783</v>
+        <v>1.162626173393576</v>
       </c>
       <c r="D140">
-        <v>-0.4572963783064559</v>
+        <v>0.1386098793155516</v>
+      </c>
+      <c r="E140">
+        <v>23</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.4516034403037595</v>
+        <v>0.4624503812625951</v>
       </c>
       <c r="C141">
-        <v>-0.2753462463457786</v>
+        <v>1.339572267898513</v>
       </c>
       <c r="D141">
-        <v>-0.3714253133199528</v>
+        <v>0.5409229476440225</v>
+      </c>
+      <c r="E141">
+        <v>23</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -2794,16 +3205,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.261229184153541</v>
+        <v>0.1534666861000207</v>
       </c>
       <c r="C142">
-        <v>-0.4610407007936798</v>
+        <v>0.8155502552500136</v>
       </c>
       <c r="D142">
-        <v>-0.3145985497872811</v>
+        <v>0.6267510722612393</v>
+      </c>
+      <c r="E142">
+        <v>23</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-0.5053620958916231</v>
+        <v>-0.01303153847559346</v>
       </c>
       <c r="C143">
-        <v>-0.2334530994154508</v>
+        <v>0.9215269172191138</v>
       </c>
       <c r="D143">
-        <v>-0.3226751339250553</v>
+        <v>0.7476197415040162</v>
+      </c>
+      <c r="E143">
+        <v>23</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -2828,13 +3245,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.5744826904242566</v>
+        <v>-0.3970849930486624</v>
       </c>
       <c r="C144">
-        <v>-0.2450798147020435</v>
+        <v>1.498447049712706</v>
       </c>
       <c r="D144">
-        <v>-0.3066442221589208</v>
+        <v>0.4898903018664303</v>
+      </c>
+      <c r="E144">
+        <v>23</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -2845,13 +3265,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.5061403173448017</v>
+        <v>1.570953816000368</v>
       </c>
       <c r="C145">
-        <v>-0.3059048384915863</v>
+        <v>2.483609384870073</v>
       </c>
       <c r="D145">
-        <v>-0.4734505940835423</v>
+        <v>2.468759078407079</v>
+      </c>
+      <c r="E145">
+        <v>23</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -2862,16 +3285,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>-0.3021829982920646</v>
+        <v>1.234048788156382</v>
       </c>
       <c r="C146">
-        <v>-0.3459059331673189</v>
+        <v>1.271800604584786</v>
       </c>
       <c r="D146">
-        <v>-0.5211179686893584</v>
+        <v>1.736642372726715</v>
+      </c>
+      <c r="E146">
+        <v>23</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.4646424358871915</v>
+        <v>2.092394590090673</v>
       </c>
       <c r="C147">
-        <v>-0.3646819412104836</v>
+        <v>1.747551150729766</v>
       </c>
       <c r="D147">
-        <v>-0.3492942116666841</v>
+        <v>2.708393461493572</v>
+      </c>
+      <c r="E147">
+        <v>23</v>
       </c>
       <c r="F147">
         <v>2</v>
@@ -2896,16 +3325,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>-0.689894811844972</v>
+        <v>1.20081787526792</v>
       </c>
       <c r="C148">
-        <v>-0.2003723590491261</v>
+        <v>1.755519320155521</v>
       </c>
       <c r="D148">
-        <v>-0.2370421314636223</v>
+        <v>1.931447241287989</v>
+      </c>
+      <c r="E148">
+        <v>23</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -2913,16 +3345,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.2833009061619156</v>
+        <v>0.7092590865610029</v>
       </c>
       <c r="C149">
-        <v>-0.3463671448240218</v>
+        <v>0.5097777059293633</v>
       </c>
       <c r="D149">
-        <v>-0.443835701164639</v>
+        <v>1.015098021160018</v>
+      </c>
+      <c r="E149">
+        <v>24</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -2930,16 +3365,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.4090175723768438</v>
+        <v>0.2546787162351156</v>
       </c>
       <c r="C150">
-        <v>-0.3375423757712547</v>
+        <v>0.8438145400571122</v>
       </c>
       <c r="D150">
-        <v>-0.3708671380640004</v>
+        <v>1.142543089035981</v>
+      </c>
+      <c r="E150">
+        <v>24</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>-0.4961505010418935</v>
+        <v>-0.002054461156521636</v>
       </c>
       <c r="C151">
-        <v>-0.1820103140769808</v>
+        <v>0.8320680834664493</v>
       </c>
       <c r="D151">
-        <v>-0.3464057126090867</v>
+        <v>0.5005840567707616</v>
+      </c>
+      <c r="E151">
+        <v>24</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>-1.769551155968412</v>
+        <v>-1.309068649168567</v>
       </c>
       <c r="C152">
-        <v>-0.3231608732276218</v>
+        <v>5.990250181169078</v>
       </c>
       <c r="D152">
-        <v>0.2859827388428536</v>
+        <v>6.184266106782869</v>
+      </c>
+      <c r="E152">
+        <v>24</v>
       </c>
       <c r="F152">
         <v>2</v>
@@ -2981,16 +3425,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-1.101305693563703</v>
+        <v>1.374470395460042</v>
       </c>
       <c r="C153">
-        <v>-0.3371236816123869</v>
+        <v>5.312117398732795</v>
       </c>
       <c r="D153">
-        <v>-0.1133134442639161</v>
+        <v>0.7046142670066901</v>
+      </c>
+      <c r="E153">
+        <v>24</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -2998,13 +3445,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-0.3204792221536457</v>
+        <v>-0.2865847058660499</v>
       </c>
       <c r="C154">
-        <v>-0.3069209125366135</v>
+        <v>1.423808766620315</v>
       </c>
       <c r="D154">
-        <v>-0.4322585190641368</v>
+        <v>0.2849723988920844</v>
+      </c>
+      <c r="E154">
+        <v>24</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -3015,16 +3465,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>-0.9989644789257647</v>
+        <v>7.152440184153448</v>
       </c>
       <c r="C155">
-        <v>-0.2235564415847245</v>
+        <v>4.222718498612799</v>
       </c>
       <c r="D155">
-        <v>0.06711332924976235</v>
+        <v>0.8801509898175821</v>
+      </c>
+      <c r="E155">
+        <v>24</v>
       </c>
       <c r="F155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3032,16 +3485,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>-0.7064761467524452</v>
+        <v>21.43575247857941</v>
       </c>
       <c r="C156">
-        <v>-0.3181006142647831</v>
+        <v>10.21488723379497</v>
       </c>
       <c r="D156">
-        <v>-0.3927483386336981</v>
+        <v>-0.6927199718826024</v>
+      </c>
+      <c r="E156">
+        <v>24</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3049,16 +3505,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>-0.3200029306399169</v>
+        <v>2.719305086354808</v>
       </c>
       <c r="C157">
-        <v>-0.3565470166633222</v>
+        <v>2.243824317629035</v>
       </c>
       <c r="D157">
-        <v>-0.5892418324975709</v>
+        <v>4.172868713351384</v>
+      </c>
+      <c r="E157">
+        <v>24</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3066,16 +3525,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-1.064265575977483</v>
+        <v>11.54504993563541</v>
       </c>
       <c r="C158">
-        <v>-0.1932290285217275</v>
+        <v>5.910342603003048</v>
       </c>
       <c r="D158">
-        <v>0.01409316957145745</v>
+        <v>-0.6697595075794235</v>
+      </c>
+      <c r="E158">
+        <v>24</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3083,13 +3545,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>-0.2990662025240385</v>
+        <v>2.427103019060917</v>
       </c>
       <c r="C159">
-        <v>-0.4377676118532622</v>
+        <v>1.998988117939351</v>
       </c>
       <c r="D159">
-        <v>-0.457911642104219</v>
+        <v>2.252432524766625</v>
+      </c>
+      <c r="E159">
+        <v>24</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -3100,16 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>-0.6465524881281247</v>
+        <v>4.397233390036938</v>
       </c>
       <c r="C160">
-        <v>-0.3619704845157823</v>
+        <v>2.525499218767088</v>
       </c>
       <c r="D160">
-        <v>-0.2480961426415392</v>
+        <v>1.568488411954087</v>
+      </c>
+      <c r="E160">
+        <v>24</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3117,16 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>-0.8916087265485529</v>
+        <v>1.893797002831469</v>
       </c>
       <c r="C161">
-        <v>-0.2387899403767939</v>
+        <v>3.196692374988278</v>
       </c>
       <c r="D161">
-        <v>-0.1410107114655409</v>
+        <v>1.6178280503405</v>
+      </c>
+      <c r="E161">
+        <v>24</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3134,16 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>-0.3673719551352834</v>
+        <v>1.217677677032473</v>
       </c>
       <c r="C162">
-        <v>-0.2804827417361752</v>
+        <v>0.5980334766599145</v>
       </c>
       <c r="D162">
-        <v>-0.2971433575146752</v>
+        <v>-0.3505703621094519</v>
+      </c>
+      <c r="E162">
+        <v>24</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3151,16 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>-1.348224467655625</v>
+        <v>11.93731323164755</v>
       </c>
       <c r="C163">
-        <v>-0.1878844838805144</v>
+        <v>6.620373497607233</v>
       </c>
       <c r="D163">
-        <v>0.1539415436383282</v>
+        <v>0.4629552650041355</v>
+      </c>
+      <c r="E163">
+        <v>24</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>-0.7464111717533006</v>
+        <v>2.734303628955185</v>
       </c>
       <c r="C164">
-        <v>-0.384917430596992</v>
+        <v>3.312084276343851</v>
       </c>
       <c r="D164">
-        <v>-0.3519142065929984</v>
+        <v>3.810360474801032</v>
+      </c>
+      <c r="E164">
+        <v>24</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -3185,16 +3665,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>-0.6907753988466419</v>
+        <v>2.738490018829491</v>
       </c>
       <c r="C165">
-        <v>-0.1983201744683482</v>
+        <v>1.543903074531708</v>
       </c>
       <c r="D165">
-        <v>-0.2568373200013751</v>
+        <v>2.716903468758452</v>
+      </c>
+      <c r="E165">
+        <v>24</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>-0.8389335875480615</v>
+        <v>1.610975431219706</v>
       </c>
       <c r="C166">
-        <v>-0.1911168117958191</v>
+        <v>1.75338263124129</v>
       </c>
       <c r="D166">
-        <v>-0.1206378049701674</v>
+        <v>2.05890933128761</v>
+      </c>
+      <c r="E166">
+        <v>24</v>
       </c>
       <c r="F166">
         <v>2</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.5975085378614137</v>
+        <v>0.3708709016766467</v>
       </c>
       <c r="C167">
-        <v>-0.2143726082015653</v>
+        <v>-0.06348261054928339</v>
       </c>
       <c r="D167">
-        <v>-0.04461114448517491</v>
+        <v>1.781590093262101</v>
+      </c>
+      <c r="E167">
+        <v>24</v>
       </c>
       <c r="F167">
         <v>2</v>
@@ -3236,13 +3725,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>-0.4544565548647588</v>
+        <v>0.1434412958898752</v>
       </c>
       <c r="C168">
-        <v>-0.1634497262157789</v>
+        <v>0.8208031240026323</v>
       </c>
       <c r="D168">
-        <v>-0.4656682427802851</v>
+        <v>0.3455687205410083</v>
+      </c>
+      <c r="E168">
+        <v>24</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>-0.7957497315925395</v>
+        <v>0.1538258025679875</v>
       </c>
       <c r="C169">
-        <v>-0.1714202655851309</v>
+        <v>0.7859679106228086</v>
       </c>
       <c r="D169">
-        <v>-0.04025642296826894</v>
+        <v>0.7883906995720305</v>
+      </c>
+      <c r="E169">
+        <v>24</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -3270,16 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>-0.9158085780602306</v>
+        <v>11.26214638612091</v>
       </c>
       <c r="C170">
-        <v>-0.3702690170411387</v>
+        <v>8.075018906401633</v>
       </c>
       <c r="D170">
-        <v>-0.267170651535548</v>
+        <v>-0.04202295987092575</v>
+      </c>
+      <c r="E170">
+        <v>25</v>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3287,16 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>-0.2168004206916165</v>
+        <v>1.1279335887187</v>
       </c>
       <c r="C171">
-        <v>-0.370508899756917</v>
+        <v>0.5126295161872254</v>
       </c>
       <c r="D171">
-        <v>-0.4562186070372762</v>
+        <v>1.340089801906468</v>
+      </c>
+      <c r="E171">
+        <v>25</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3304,13 +3805,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>-0.1061162147427375</v>
+        <v>0.5470557023198954</v>
       </c>
       <c r="C172">
-        <v>-0.4984551565622841</v>
+        <v>-0.1113502163036317</v>
       </c>
       <c r="D172">
-        <v>-0.3577407545061648</v>
+        <v>0.01857924517085818</v>
+      </c>
+      <c r="E172">
+        <v>25</v>
       </c>
       <c r="F172">
         <v>0</v>
@@ -3321,13 +3825,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>-0.48396571220227</v>
+        <v>0.7641354421151256</v>
       </c>
       <c r="C173">
-        <v>-0.2400506651578818</v>
+        <v>1.122252040943359</v>
       </c>
       <c r="D173">
-        <v>-0.4135939694851916</v>
+        <v>-0.1051726401128973</v>
+      </c>
+      <c r="E173">
+        <v>25</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>-0.07529384120641097</v>
+        <v>0.904876239088414</v>
       </c>
       <c r="C174">
-        <v>-0.5483123385975616</v>
+        <v>0.06147068064045313</v>
       </c>
       <c r="D174">
-        <v>-0.3546122005077278</v>
+        <v>0.1767091504247723</v>
+      </c>
+      <c r="E174">
+        <v>25</v>
       </c>
       <c r="F174">
         <v>0</v>
@@ -3355,16 +3865,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>-0.1276223225492874</v>
+        <v>-0.3579247952467713</v>
       </c>
       <c r="C175">
-        <v>-0.5186000856648649</v>
+        <v>0.1005569267241272</v>
       </c>
       <c r="D175">
-        <v>-0.2572592552527658</v>
+        <v>0.1523452848603664</v>
+      </c>
+      <c r="E175">
+        <v>25</v>
       </c>
       <c r="F175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3372,16 +3885,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.3944934286547042</v>
+        <v>0.04912738493963698</v>
       </c>
       <c r="C176">
-        <v>-0.449545192129677</v>
+        <v>0.6649798794753159</v>
       </c>
       <c r="D176">
-        <v>-0.8869983666121517</v>
+        <v>-0.5187210101063152</v>
+      </c>
+      <c r="E176">
+        <v>25</v>
       </c>
       <c r="F176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3389,13 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>-0.4474549966230941</v>
+        <v>-0.3645682147251775</v>
       </c>
       <c r="C177">
-        <v>-0.2254379898420229</v>
+        <v>0.9529276149505341</v>
       </c>
       <c r="D177">
-        <v>-0.3798100889631325</v>
+        <v>-0.2522564146362213</v>
+      </c>
+      <c r="E177">
+        <v>25</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -3406,13 +3925,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>-0.4274161439008302</v>
+        <v>-0.3862134080512453</v>
       </c>
       <c r="C178">
-        <v>-0.3868553867999305</v>
+        <v>0.3916579229846129</v>
       </c>
       <c r="D178">
-        <v>-0.1049069132649212</v>
+        <v>0.9437463493026444</v>
+      </c>
+      <c r="E178">
+        <v>25</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -3423,13 +3945,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>-0.115563941918103</v>
+        <v>0.9181429940492782</v>
       </c>
       <c r="C179">
-        <v>-0.4190588765487904</v>
+        <v>0.5604090634146459</v>
       </c>
       <c r="D179">
-        <v>-0.5277706341974913</v>
+        <v>-0.1232562866946095</v>
+      </c>
+      <c r="E179">
+        <v>25</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>-0.3144879366013341</v>
+        <v>0.9982966921373913</v>
       </c>
       <c r="C180">
-        <v>-0.3741889152615494</v>
+        <v>0.5797506977406801</v>
       </c>
       <c r="D180">
-        <v>-0.3208048836508892</v>
+        <v>0.2099576473727591</v>
+      </c>
+      <c r="E180">
+        <v>25</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>-0.2955490075734838</v>
+        <v>0.6005555446513744</v>
       </c>
       <c r="C181">
-        <v>-0.3630469975019067</v>
+        <v>0.5102796056898238</v>
       </c>
       <c r="D181">
-        <v>-0.3607077921890932</v>
+        <v>-0.2673591454737324</v>
+      </c>
+      <c r="E181">
+        <v>25</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>-0.06983404402741086</v>
+        <v>0.8447191384298436</v>
       </c>
       <c r="C182">
-        <v>-0.4972100914840626</v>
+        <v>0.3403060152311086</v>
       </c>
       <c r="D182">
-        <v>-0.4795753572765685</v>
+        <v>-0.4137446169914373</v>
+      </c>
+      <c r="E182">
+        <v>25</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -3491,16 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>-0.1773647259397565</v>
+        <v>-0.1343750892772694</v>
       </c>
       <c r="C183">
-        <v>-0.4493051411598407</v>
+        <v>0.3427944617793395</v>
       </c>
       <c r="D183">
-        <v>-0.334682923856142</v>
+        <v>0.4230417709470763</v>
+      </c>
+      <c r="E183">
+        <v>25</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3508,16 +4045,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>-0.2878302261698328</v>
+        <v>-0.365583629071628</v>
       </c>
       <c r="C184">
-        <v>-0.3414059018912664</v>
+        <v>0.9893829186870833</v>
       </c>
       <c r="D184">
-        <v>-0.4662213693899482</v>
+        <v>-1.21906099391635</v>
+      </c>
+      <c r="E184">
+        <v>25</v>
       </c>
       <c r="F184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3525,13 +4065,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>-0.3609924271244136</v>
+        <v>-0.0002976493670172609</v>
       </c>
       <c r="C185">
-        <v>-0.3190059169569838</v>
+        <v>0.7195899699070201</v>
       </c>
       <c r="D185">
-        <v>-0.3195911102691634</v>
+        <v>-0.00563313154417755</v>
+      </c>
+      <c r="E185">
+        <v>25</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -3542,13 +4085,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>-0.4131242266910855</v>
+        <v>-0.05228824859935877</v>
       </c>
       <c r="C186">
-        <v>-0.2783380357872022</v>
+        <v>0.845859110688012</v>
       </c>
       <c r="D186">
-        <v>-0.4050387401539495</v>
+        <v>-0.5612614513404132</v>
+      </c>
+      <c r="E186">
+        <v>25</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -3559,13 +4105,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>-0.4385181960563657</v>
+        <v>0.05821744990724853</v>
       </c>
       <c r="C187">
-        <v>-0.196342395756431</v>
+        <v>0.9606368838284565</v>
       </c>
       <c r="D187">
-        <v>-0.3499812354428132</v>
+        <v>-0.4953199746176714</v>
+      </c>
+      <c r="E187">
+        <v>25</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -3576,16 +4125,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>-0.56217875719251</v>
+        <v>-0.2847517853084737</v>
       </c>
       <c r="C188">
-        <v>-0.2195733896286347</v>
+        <v>0.6896387117966303</v>
       </c>
       <c r="D188">
-        <v>-0.2024696393884625</v>
+        <v>-0.350371150354294</v>
+      </c>
+      <c r="E188">
+        <v>25</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>-0.06099849011851927</v>
+        <v>0.4258822202408263</v>
       </c>
       <c r="C189">
-        <v>-0.4721344050283194</v>
+        <v>-0.7343159408739122</v>
       </c>
       <c r="D189">
-        <v>-0.5032928530954212</v>
+        <v>-0.1996932843693378</v>
+      </c>
+      <c r="E189">
+        <v>25</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -3610,16 +4165,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.3988041432754573</v>
+        <v>0.4311216479296187</v>
       </c>
       <c r="C190">
-        <v>-0.3296069949904706</v>
+        <v>1.02200989505147</v>
       </c>
       <c r="D190">
-        <v>-0.2832552473424084</v>
+        <v>0.5195419400478352</v>
+      </c>
+      <c r="E190">
+        <v>25</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3627,13 +4185,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.0795396432197687</v>
+        <v>0.8898985849275085</v>
       </c>
       <c r="C191">
-        <v>-0.6625238161055911</v>
+        <v>-0.1862921684526244</v>
       </c>
       <c r="D191">
-        <v>-0.351424347594857</v>
+        <v>0.359564025734611</v>
+      </c>
+      <c r="E191">
+        <v>25</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>-0.06247228153080892</v>
+        <v>1.480473712582329</v>
       </c>
       <c r="C192">
-        <v>-0.5746838996700782</v>
+        <v>0.3787321221301576</v>
       </c>
       <c r="D192">
-        <v>-0.4188967677000114</v>
+        <v>0.2564943074657207</v>
+      </c>
+      <c r="E192">
+        <v>25</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -3661,16 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>-0.8853154537083087</v>
+        <v>10.59946526114185</v>
       </c>
       <c r="C193">
-        <v>-0.2871542516624313</v>
+        <v>6.821031990597999</v>
       </c>
       <c r="D193">
-        <v>-0.2366747374048428</v>
+        <v>-0.7181922898742702</v>
+      </c>
+      <c r="E193">
+        <v>26</v>
       </c>
       <c r="F193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3678,16 +4245,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.2131205646745133</v>
+        <v>-0.7595434110909018</v>
       </c>
       <c r="C194">
-        <v>-0.3475700182495386</v>
+        <v>1.014257180265087</v>
       </c>
       <c r="D194">
-        <v>-0.4080653928986535</v>
+        <v>0.210768144072682</v>
+      </c>
+      <c r="E194">
+        <v>26</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -3695,13 +4265,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>-0.5444384449145599</v>
+        <v>-0.7958886853524456</v>
       </c>
       <c r="C195">
-        <v>-0.4048434696312929</v>
+        <v>0.5220895370633485</v>
       </c>
       <c r="D195">
-        <v>0.01483660504447581</v>
+        <v>1.229954204171234</v>
+      </c>
+      <c r="E195">
+        <v>26</v>
       </c>
       <c r="F195">
         <v>2</v>
@@ -3712,16 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>-0.23685147683017</v>
+        <v>0.03781575737158849</v>
       </c>
       <c r="C196">
-        <v>-0.4137499220449998</v>
+        <v>0.7038844275827774</v>
       </c>
       <c r="D196">
-        <v>-0.3923130987908234</v>
+        <v>0.3472934197957917</v>
+      </c>
+      <c r="E196">
+        <v>26</v>
       </c>
       <c r="F196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3729,13 +4305,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>-0.8233339546818489</v>
+        <v>-0.7326409603309365</v>
       </c>
       <c r="C197">
-        <v>-0.05601426365318493</v>
+        <v>1.400859200554582</v>
       </c>
       <c r="D197">
-        <v>-0.1360009703017436</v>
+        <v>-0.3513007930192867</v>
+      </c>
+      <c r="E197">
+        <v>26</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>-0.6455440973174895</v>
+        <v>-0.8173584799666842</v>
       </c>
       <c r="C198">
-        <v>-0.1819816334351713</v>
+        <v>0.8722246748379017</v>
       </c>
       <c r="D198">
-        <v>-0.2073388914601217</v>
+        <v>0.2571867409934475</v>
+      </c>
+      <c r="E198">
+        <v>26</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>-0.4926529235562976</v>
+        <v>-1.140802003475589</v>
       </c>
       <c r="C199">
-        <v>-0.1832107059274918</v>
+        <v>0.6135016009563006</v>
       </c>
       <c r="D199">
-        <v>-0.3267828678639819</v>
+        <v>-0.03402654453034037</v>
+      </c>
+      <c r="E199">
+        <v>26</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -3780,16 +4365,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>-0.3756200419629868</v>
+        <v>-0.5998212673909646</v>
       </c>
       <c r="C200">
-        <v>-0.34845730385865</v>
+        <v>0.6321337766005544</v>
       </c>
       <c r="D200">
-        <v>-0.2778071295965671</v>
+        <v>0.4827354645600371</v>
+      </c>
+      <c r="E200">
+        <v>26</v>
       </c>
       <c r="F200">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -3797,16 +4385,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>-0.454771660621775</v>
+        <v>-0.5557710133444691</v>
       </c>
       <c r="C201">
-        <v>-0.304571400637113</v>
+        <v>0.3574416426982994</v>
       </c>
       <c r="D201">
-        <v>-0.194066306553333</v>
+        <v>0.1653908436408973</v>
+      </c>
+      <c r="E201">
+        <v>26</v>
       </c>
       <c r="F201">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3814,16 +4405,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>-0.2478256244818164</v>
+        <v>0.01211707662717476</v>
       </c>
       <c r="C202">
-        <v>-0.3578623092378217</v>
+        <v>0.3779098258410096</v>
       </c>
       <c r="D202">
-        <v>-0.3371699259434779</v>
+        <v>0.04898087120547401</v>
+      </c>
+      <c r="E202">
+        <v>26</v>
       </c>
       <c r="F202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3831,16 +4425,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>-0.01763799032605989</v>
+        <v>0.6373655663798434</v>
       </c>
       <c r="C203">
-        <v>-0.569222010853887</v>
+        <v>1.136413495545203</v>
       </c>
       <c r="D203">
-        <v>-0.4715441169460133</v>
+        <v>0.3728440570939104</v>
+      </c>
+      <c r="E203">
+        <v>26</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3848,13 +4445,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>-0.04979444722418636</v>
+        <v>0.5018885838231406</v>
       </c>
       <c r="C204">
-        <v>-0.4575462583578808</v>
+        <v>0.43923850315454</v>
       </c>
       <c r="D204">
-        <v>-0.5064237777636372</v>
+        <v>0.2290758200625529</v>
+      </c>
+      <c r="E204">
+        <v>26</v>
       </c>
       <c r="F204">
         <v>0</v>
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>-0.2556078065356713</v>
+        <v>-0.7556203583297741</v>
       </c>
       <c r="C205">
-        <v>-0.2244013859946246</v>
+        <v>1.566091692873007</v>
       </c>
       <c r="D205">
-        <v>-0.6391657030926067</v>
+        <v>-0.6527779572935865</v>
+      </c>
+      <c r="E205">
+        <v>26</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -3882,16 +4485,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>-0.895095044548228</v>
+        <v>-2.418113045133064</v>
       </c>
       <c r="C206">
-        <v>-0.3401099168649093</v>
+        <v>4.880819184239605</v>
       </c>
       <c r="D206">
-        <v>-0.08369995623465429</v>
+        <v>1.101347338242954</v>
+      </c>
+      <c r="E206">
+        <v>26</v>
       </c>
       <c r="F206">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3899,13 +4505,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>-0.297950115955041</v>
+        <v>-0.396623474792785</v>
       </c>
       <c r="C207">
-        <v>-0.3796462541290945</v>
+        <v>-0.1823663112572023</v>
       </c>
       <c r="D207">
-        <v>-0.1743543508031591</v>
+        <v>0.5845765819591719</v>
+      </c>
+      <c r="E207">
+        <v>26</v>
       </c>
       <c r="F207">
         <v>2</v>
@@ -3916,13 +4525,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>-0.2566621425529435</v>
+        <v>-0.7960630957392592</v>
       </c>
       <c r="C208">
-        <v>-0.2132708639603783</v>
+        <v>0.4923410847632528</v>
       </c>
       <c r="D208">
-        <v>-0.4808428246134214</v>
+        <v>-0.3975136417637172</v>
+      </c>
+      <c r="E208">
+        <v>26</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -3933,16 +4545,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>-0.2161657615852115</v>
+        <v>0.02501257786922695</v>
       </c>
       <c r="C209">
-        <v>-0.3649479882590002</v>
+        <v>0.6399071064862383</v>
       </c>
       <c r="D209">
-        <v>-0.3666310963159485</v>
+        <v>0.2785130116589374</v>
+      </c>
+      <c r="E209">
+        <v>26</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -3950,16 +4565,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-1.044196506407137</v>
+        <v>-1.903687350210648</v>
       </c>
       <c r="C210">
-        <v>-0.2588062281571507</v>
+        <v>4.549844419837433</v>
       </c>
       <c r="D210">
-        <v>-0.03333237384199561</v>
+        <v>1.009203702735278</v>
+      </c>
+      <c r="E210">
+        <v>26</v>
       </c>
       <c r="F210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -3967,16 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>-1.268081834176084</v>
+        <v>-3.329387811901011</v>
       </c>
       <c r="C211">
-        <v>-0.2455492011816507</v>
+        <v>6.268056985665022</v>
       </c>
       <c r="D211">
-        <v>0.02713767716050364</v>
+        <v>1.021655215291495</v>
+      </c>
+      <c r="E211">
+        <v>26</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3984,16 +4605,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>-1.377696136384968</v>
+        <v>-2.421622626737568</v>
       </c>
       <c r="C212">
-        <v>-0.2209500178459226</v>
+        <v>5.457618095596857</v>
       </c>
       <c r="D212">
-        <v>0.2232506749243815</v>
+        <v>1.074067737409479</v>
+      </c>
+      <c r="E212">
+        <v>26</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.4961202222196881</v>
+        <v>-0.2571604633960646</v>
       </c>
       <c r="C213">
-        <v>-0.1854650120044764</v>
+        <v>1.235815578469355</v>
       </c>
       <c r="D213">
-        <v>-0.4249643592090164</v>
+        <v>0.1383615750652742</v>
+      </c>
+      <c r="E213">
+        <v>26</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.7432268720647133</v>
+        <v>-0.2731003360185736</v>
       </c>
       <c r="C214">
-        <v>-0.1192566667391627</v>
+        <v>0.813224275557537</v>
       </c>
       <c r="D214">
-        <v>-0.126796726209002</v>
+        <v>0.7762236221172334</v>
+      </c>
+      <c r="E214">
+        <v>26</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -4035,16 +4665,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>-0.5798851267797289</v>
+        <v>-0.2901709311925964</v>
       </c>
       <c r="C215">
-        <v>-0.2428813817011109</v>
+        <v>1.588854457137081</v>
       </c>
       <c r="D215">
-        <v>-0.2329736341064713</v>
+        <v>0.5604929343801093</v>
+      </c>
+      <c r="E215">
+        <v>26</v>
       </c>
       <c r="F215">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.4271455390367478</v>
+        <v>0.9243524391064941</v>
       </c>
       <c r="C216">
-        <v>-0.6540574241746375</v>
+        <v>-0.7412325046459225</v>
       </c>
       <c r="D216">
-        <v>-0.7834465106743465</v>
+        <v>-0.3143814209202928</v>
+      </c>
+      <c r="E216">
+        <v>27</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -4069,16 +4705,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.03719402825539081</v>
+        <v>1.156966602894204</v>
       </c>
       <c r="C217">
-        <v>-0.5709626899882128</v>
+        <v>0.7912994823892425</v>
       </c>
       <c r="D217">
-        <v>-0.711509362903727</v>
+        <v>1.497664580356815</v>
+      </c>
+      <c r="E217">
+        <v>27</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.1840315734946785</v>
+        <v>1.179604970235307</v>
       </c>
       <c r="C218">
-        <v>-0.681505208660654</v>
+        <v>0.07839577869342884</v>
       </c>
       <c r="D218">
-        <v>-0.6322288592584537</v>
+        <v>0.8400028430961801</v>
+      </c>
+      <c r="E218">
+        <v>27</v>
       </c>
       <c r="F218">
         <v>0</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.2941249884757396</v>
+        <v>1.238517460195644</v>
       </c>
       <c r="C219">
-        <v>-0.6226843744726509</v>
+        <v>-0.8764306131946802</v>
       </c>
       <c r="D219">
-        <v>-0.6851249583213129</v>
+        <v>0.5222010014252296</v>
+      </c>
+      <c r="E219">
+        <v>27</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -4120,16 +4765,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.1738491667283532</v>
+        <v>-0.5816925988376583</v>
       </c>
       <c r="C220">
-        <v>-0.2896635875095333</v>
+        <v>0.08905695273471537</v>
       </c>
       <c r="D220">
-        <v>-0.3743414507675468</v>
+        <v>0.6219748301359264</v>
+      </c>
+      <c r="E220">
+        <v>27</v>
       </c>
       <c r="F220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4137,16 +4785,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.05498865658724461</v>
+        <v>1.489377607679107</v>
       </c>
       <c r="C221">
-        <v>-0.6351715199767083</v>
+        <v>1.323306760804764</v>
       </c>
       <c r="D221">
-        <v>-0.7472837586188813</v>
+        <v>1.564226848691693</v>
+      </c>
+      <c r="E221">
+        <v>27</v>
       </c>
       <c r="F221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3085633526499266</v>
+        <v>1.559851454268964</v>
       </c>
       <c r="C222">
-        <v>-0.664753231820852</v>
+        <v>0.1892379425178372</v>
       </c>
       <c r="D222">
-        <v>-0.8114368504104782</v>
+        <v>1.384082267783108</v>
+      </c>
+      <c r="E222">
+        <v>27</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.2945499342593438</v>
+        <v>1.795435937265032</v>
       </c>
       <c r="C223">
-        <v>-0.6800210003098376</v>
+        <v>-0.08093293114012523</v>
       </c>
       <c r="D223">
-        <v>-0.7807601735639152</v>
+        <v>1.75004879911505</v>
+      </c>
+      <c r="E223">
+        <v>27</v>
       </c>
       <c r="F223">
         <v>0</v>
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.1746348905310971</v>
+        <v>0.8540299716173647</v>
       </c>
       <c r="C224">
-        <v>-0.5158666878454103</v>
+        <v>-0.1913362629980688</v>
       </c>
       <c r="D224">
-        <v>-0.6962918178221154</v>
+        <v>0.05535491499718981</v>
+      </c>
+      <c r="E224">
+        <v>27</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -4205,13 +4865,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>-0.2662113836603462</v>
+        <v>1.285371356996476</v>
       </c>
       <c r="C225">
-        <v>-0.3140070370352526</v>
+        <v>0.5226228238428743</v>
       </c>
       <c r="D225">
-        <v>-0.3923891487977053</v>
+        <v>0.9809231104346167</v>
+      </c>
+      <c r="E225">
+        <v>27</v>
       </c>
       <c r="F225">
         <v>0</v>
@@ -4222,16 +4885,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>-0.1909115654377067</v>
+        <v>-0.02351354236393832</v>
       </c>
       <c r="C226">
-        <v>-0.255611474188767</v>
+        <v>0.2278482574853848</v>
       </c>
       <c r="D226">
-        <v>-0.3034244401144368</v>
+        <v>-0.1307634847304376</v>
+      </c>
+      <c r="E226">
+        <v>27</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.08024144590303878</v>
+        <v>0.8229245676642569</v>
       </c>
       <c r="C227">
-        <v>-0.3456103252813929</v>
+        <v>0.06401953985652642</v>
       </c>
       <c r="D227">
-        <v>-0.3950366663579189</v>
+        <v>-1.028855308962536</v>
+      </c>
+      <c r="E227">
+        <v>27</v>
       </c>
       <c r="F227">
         <v>0</v>
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.2066329876269352</v>
+        <v>1.392069168595329</v>
       </c>
       <c r="C228">
-        <v>-0.6112042693677325</v>
+        <v>0.3923671084127447</v>
       </c>
       <c r="D228">
-        <v>-0.7679544299877533</v>
+        <v>0.56387779116075</v>
+      </c>
+      <c r="E228">
+        <v>27</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -4273,16 +4945,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.02878407096684932</v>
+        <v>1.678594138081621</v>
       </c>
       <c r="C229">
-        <v>-0.6196811051888846</v>
+        <v>1.591340096048377</v>
       </c>
       <c r="D229">
-        <v>-1.083083322772889</v>
+        <v>2.285678191485041</v>
+      </c>
+      <c r="E229">
+        <v>27</v>
       </c>
       <c r="F229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4290,16 +4965,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.05418205027992201</v>
+        <v>0.2324969495540747</v>
       </c>
       <c r="C230">
-        <v>-0.4877104489856901</v>
+        <v>1.15086010581766</v>
       </c>
       <c r="D230">
-        <v>-0.6995589512187325</v>
+        <v>0.2217262634092457</v>
+      </c>
+      <c r="E230">
+        <v>27</v>
       </c>
       <c r="F230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.2114384898989502</v>
+        <v>1.213868040803068</v>
       </c>
       <c r="C231">
-        <v>-0.5624911080704394</v>
+        <v>1.069420619263961</v>
       </c>
       <c r="D231">
-        <v>-0.82675062526402</v>
+        <v>1.056671898920936</v>
+      </c>
+      <c r="E231">
+        <v>27</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -4324,16 +5005,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.4366065755151396</v>
+        <v>-0.4630840772124186</v>
       </c>
       <c r="C232">
-        <v>-0.5081173602636286</v>
+        <v>0.272473312501778</v>
       </c>
       <c r="D232">
-        <v>-1.064082378545548</v>
+        <v>-0.9520283795682493</v>
+      </c>
+      <c r="E232">
+        <v>27</v>
       </c>
       <c r="F232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.1640693197864179</v>
+        <v>0.5294253178612482</v>
       </c>
       <c r="C233">
-        <v>-0.3895650735882372</v>
+        <v>-0.08848739564975927</v>
       </c>
       <c r="D233">
-        <v>-0.8909823471070089</v>
+        <v>-0.9866735786216144</v>
+      </c>
+      <c r="E233">
+        <v>27</v>
       </c>
       <c r="F233">
         <v>0</v>
@@ -4358,16 +5045,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>-0.2911453751702383</v>
+        <v>0.02617054106960492</v>
       </c>
       <c r="C234">
-        <v>-0.3356991833546653</v>
+        <v>0.1731261633936023</v>
       </c>
       <c r="D234">
-        <v>-0.430594035642924</v>
+        <v>0.7172363094823758</v>
+      </c>
+      <c r="E234">
+        <v>27</v>
       </c>
       <c r="F234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.09903297428262339</v>
+        <v>0.8174484657670935</v>
       </c>
       <c r="C235">
-        <v>-0.3673455043380782</v>
+        <v>0.03528560668172043</v>
       </c>
       <c r="D235">
-        <v>-0.524758940681574</v>
+        <v>0.5582742346403387</v>
+      </c>
+      <c r="E235">
+        <v>27</v>
       </c>
       <c r="F235">
         <v>0</v>
@@ -4392,16 +5085,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1723460264946834</v>
+        <v>1.976621927050743</v>
       </c>
       <c r="C236">
-        <v>-0.6017127660871486</v>
+        <v>0.8061318918748794</v>
       </c>
       <c r="D236">
-        <v>-1.022846401637245</v>
+        <v>2.992955979694158</v>
+      </c>
+      <c r="E236">
+        <v>27</v>
       </c>
       <c r="F236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -4409,16 +5105,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.5168093443784236</v>
+        <v>3.170981245431189</v>
       </c>
       <c r="C237">
-        <v>-0.8599908708583877</v>
+        <v>1.169526453161415</v>
       </c>
       <c r="D237">
-        <v>-1.150511910053657</v>
+        <v>3.637050097174988</v>
+      </c>
+      <c r="E237">
+        <v>27</v>
       </c>
       <c r="F237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -4426,16 +5125,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.5019989857943543</v>
+        <v>3.153386694594426</v>
       </c>
       <c r="C238">
-        <v>-0.8902526226942171</v>
+        <v>0.7306717045645286</v>
       </c>
       <c r="D238">
-        <v>-1.060471628864904</v>
+        <v>3.85191320796875</v>
+      </c>
+      <c r="E238">
+        <v>27</v>
       </c>
       <c r="F238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.4274962659171613</v>
+        <v>1.892012274028168</v>
       </c>
       <c r="C239">
-        <v>-0.7211254454196419</v>
+        <v>0.1397785319414381</v>
       </c>
       <c r="D239">
-        <v>-0.998792121707591</v>
+        <v>1.468619076382769</v>
+      </c>
+      <c r="E239">
+        <v>27</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.8655532572116581</v>
+        <v>1.806109848824827</v>
       </c>
       <c r="C240">
-        <v>-0.8258356124575938</v>
+        <v>-0.988321210325623</v>
       </c>
       <c r="D240">
-        <v>-1.053338784709289</v>
+        <v>-0.7630519406996664</v>
+      </c>
+      <c r="E240">
+        <v>27</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -4477,16 +5185,19 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>-1.494745960527576</v>
+        <v>-3.187003822811903</v>
       </c>
       <c r="C241">
-        <v>-0.6948059160452247</v>
+        <v>10.13602612881648</v>
       </c>
       <c r="D241">
-        <v>-0.2727298118763432</v>
+        <v>3.045124284387033</v>
+      </c>
+      <c r="E241">
+        <v>27</v>
       </c>
       <c r="F241">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -4494,16 +5205,19 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>-2.841060335737891</v>
+        <v>-7.138604012970699</v>
       </c>
       <c r="C242">
-        <v>-0.4825409473444949</v>
+        <v>11.71004159397341</v>
       </c>
       <c r="D242">
-        <v>0.5926030211266753</v>
+        <v>9.003674943459666</v>
+      </c>
+      <c r="E242">
+        <v>27</v>
       </c>
       <c r="F242">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -4511,13 +5225,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3675837074497599</v>
+        <v>1.698491572816018</v>
       </c>
       <c r="C243">
-        <v>-0.696065490291071</v>
+        <v>0.4149278401583074</v>
       </c>
       <c r="D243">
-        <v>-1.037085975380398</v>
+        <v>1.463276264954379</v>
+      </c>
+      <c r="E243">
+        <v>27</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -4528,13 +5245,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.4416383379548916</v>
+        <v>2.376963953306352</v>
       </c>
       <c r="C244">
-        <v>-0.7208400163063924</v>
+        <v>0.1107781494484193</v>
       </c>
       <c r="D244">
-        <v>-0.9585496499786214</v>
+        <v>1.376945490046043</v>
+      </c>
+      <c r="E244">
+        <v>27</v>
       </c>
       <c r="F244">
         <v>0</v>
@@ -4545,13 +5265,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.4087859351147379</v>
+        <v>1.473242397967423</v>
       </c>
       <c r="C245">
-        <v>-0.6092551829100568</v>
+        <v>-0.2717098548686962</v>
       </c>
       <c r="D245">
-        <v>-0.846788902440413</v>
+        <v>0.4838094803691612</v>
+      </c>
+      <c r="E245">
+        <v>27</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -4562,13 +5285,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.6415244348273403</v>
+        <v>1.842072049684157</v>
       </c>
       <c r="C246">
-        <v>-0.7932046049938031</v>
+        <v>-0.4355896774255146</v>
       </c>
       <c r="D246">
-        <v>-1.157683011207594</v>
+        <v>0.9903596456186291</v>
+      </c>
+      <c r="E246">
+        <v>27</v>
       </c>
       <c r="F246">
         <v>0</v>
